--- a/predictions полгода до/Прогнозы_ETS_CM4dt.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_CM4dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21445259.13275527</v>
+        <v>20306076.04724576</v>
       </c>
       <c r="C2" t="n">
-        <v>20999083.67919168</v>
+        <v>17889577.68017795</v>
       </c>
       <c r="D2" t="n">
-        <v>18815904.341239</v>
+        <v>18829022.5114415</v>
       </c>
       <c r="E2" t="n">
-        <v>19971985.01713302</v>
+        <v>18837199.65056588</v>
       </c>
       <c r="F2" t="n">
-        <v>20465801.94825773</v>
+        <v>18468642.18618802</v>
       </c>
       <c r="G2" t="n">
-        <v>20051069.83338756</v>
+        <v>16129617.68019304</v>
       </c>
       <c r="H2" t="n">
-        <v>17898324.41425386</v>
+        <v>17143269.75201222</v>
       </c>
       <c r="I2" t="n">
-        <v>19083861.99431799</v>
+        <v>17222525.24549542</v>
       </c>
       <c r="J2" t="n">
-        <v>19606190.17989036</v>
+        <v>16922049.17614762</v>
       </c>
       <c r="K2" t="n">
-        <v>19219054.02776917</v>
+        <v>14648235.470136</v>
       </c>
       <c r="L2" t="n">
-        <v>17093018.66313137</v>
+        <v>15724348.78312968</v>
       </c>
       <c r="M2" t="n">
-        <v>18304408.82959242</v>
+        <v>15863431.89182471</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11922361.10349331</v>
+        <v>9142727.840443078</v>
       </c>
       <c r="C3" t="n">
-        <v>12002776.35028759</v>
+        <v>8730190.27392377</v>
       </c>
       <c r="D3" t="n">
-        <v>12419490.02030859</v>
+        <v>8188773.52425498</v>
       </c>
       <c r="E3" t="n">
-        <v>12575667.0549254</v>
+        <v>8540790.809636885</v>
       </c>
       <c r="F3" t="n">
-        <v>13927926.72797793</v>
+        <v>8133378.849662496</v>
       </c>
       <c r="G3" t="n">
-        <v>13833151.37416431</v>
+        <v>7922711.081299302</v>
       </c>
       <c r="H3" t="n">
-        <v>14089977.73067341</v>
+        <v>7542790.170155408</v>
       </c>
       <c r="I3" t="n">
-        <v>14100233.96284222</v>
+        <v>8024004.126357228</v>
       </c>
       <c r="J3" t="n">
-        <v>15319319.33882656</v>
+        <v>7719949.503038769</v>
       </c>
       <c r="K3" t="n">
-        <v>15103002.75783988</v>
+        <v>7591967.604000321</v>
       </c>
       <c r="L3" t="n">
-        <v>15248904.78264276</v>
+        <v>7278195.388316222</v>
       </c>
       <c r="M3" t="n">
-        <v>15157926.16923158</v>
+        <v>7812328.300885879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4903696.647355733</v>
+        <v>15858085.08345702</v>
       </c>
       <c r="C4" t="n">
-        <v>4999591.418991607</v>
+        <v>19952399.63057477</v>
       </c>
       <c r="D4" t="n">
-        <v>5055125.502936477</v>
+        <v>24109277.48740937</v>
       </c>
       <c r="E4" t="n">
-        <v>5271186.206689985</v>
+        <v>27906264.99513045</v>
       </c>
       <c r="F4" t="n">
-        <v>5063336.66894398</v>
+        <v>31837822.978683</v>
       </c>
       <c r="G4" t="n">
-        <v>5156034.582091965</v>
+        <v>35612542.76789439</v>
       </c>
       <c r="H4" t="n">
-        <v>5208435.825982982</v>
+        <v>39456217.7619808</v>
       </c>
       <c r="I4" t="n">
-        <v>5421426.426120642</v>
+        <v>42946266.4642087</v>
       </c>
       <c r="J4" t="n">
-        <v>5210568.26487327</v>
+        <v>46577024.41837796</v>
       </c>
       <c r="K4" t="n">
-        <v>5300317.803469252</v>
+        <v>50056960.17879375</v>
       </c>
       <c r="L4" t="n">
-        <v>5349829.715247113</v>
+        <v>53611746.82466052</v>
       </c>
       <c r="M4" t="n">
-        <v>5559988.843360825</v>
+        <v>56818684.9456332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3906592.889725569</v>
+        <v>25175717.30040157</v>
       </c>
       <c r="C5" t="n">
-        <v>5390133.612513669</v>
+        <v>20810085.69848434</v>
       </c>
       <c r="D5" t="n">
-        <v>6861074.078044499</v>
+        <v>24513039.92793902</v>
       </c>
       <c r="E5" t="n">
-        <v>8350311.16964334</v>
+        <v>25385889.41289887</v>
       </c>
       <c r="F5" t="n">
-        <v>9774782.473562656</v>
+        <v>29176435.6735023</v>
       </c>
       <c r="G5" t="n">
-        <v>11140957.85390932</v>
+        <v>24730788.81919321</v>
       </c>
       <c r="H5" t="n">
-        <v>12496880.31486324</v>
+        <v>28355328.11900267</v>
       </c>
       <c r="I5" t="n">
-        <v>13873399.79237209</v>
+        <v>29151330.99025501</v>
       </c>
       <c r="J5" t="n">
-        <v>15187407.86427068</v>
+        <v>32866567.58642299</v>
       </c>
       <c r="K5" t="n">
-        <v>16445329.30642875</v>
+        <v>28347117.27762511</v>
       </c>
       <c r="L5" t="n">
-        <v>17695162.93656571</v>
+        <v>31899329.20836034</v>
       </c>
       <c r="M5" t="n">
-        <v>18967715.38790964</v>
+        <v>32624451.27391823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9168808.524357177</v>
+        <v>2215146.895432158</v>
       </c>
       <c r="C6" t="n">
-        <v>11449058.86087492</v>
+        <v>3389986.860912756</v>
       </c>
       <c r="D6" t="n">
-        <v>9124876.812295493</v>
+        <v>2127611.283378022</v>
       </c>
       <c r="E6" t="n">
-        <v>10992232.31818938</v>
+        <v>3280311.856563223</v>
       </c>
       <c r="F6" t="n">
-        <v>10489140.38237316</v>
+        <v>2241994.58164625</v>
       </c>
       <c r="G6" t="n">
-        <v>12742981.11639719</v>
+        <v>3415127.893050338</v>
       </c>
       <c r="H6" t="n">
-        <v>10392917.71668727</v>
+        <v>2151154.150048268</v>
       </c>
       <c r="I6" t="n">
-        <v>12234909.55660018</v>
+        <v>3302358.149969947</v>
       </c>
       <c r="J6" t="n">
-        <v>11706961.28508688</v>
+        <v>2262639.435978691</v>
       </c>
       <c r="K6" t="n">
-        <v>13936442.86595262</v>
+        <v>3434460.395006324</v>
       </c>
       <c r="L6" t="n">
-        <v>11562507.55085578</v>
+        <v>2169257.723261227</v>
       </c>
       <c r="M6" t="n">
-        <v>13381104.96730346</v>
+        <v>3319310.914998658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2443364.930924468</v>
+        <v>8250139.463674547</v>
       </c>
       <c r="C7" t="n">
-        <v>3133978.085315737</v>
+        <v>8193907.317645483</v>
       </c>
       <c r="D7" t="n">
-        <v>2143689.83186406</v>
+        <v>8561053.701586919</v>
       </c>
       <c r="E7" t="n">
-        <v>3027083.139471548</v>
+        <v>8706762.707413243</v>
       </c>
       <c r="F7" t="n">
-        <v>2823198.006138475</v>
+        <v>8543986.242815549</v>
       </c>
       <c r="G7" t="n">
-        <v>3506214.398491965</v>
+        <v>8481875.756687377</v>
       </c>
       <c r="H7" t="n">
-        <v>2508481.320253962</v>
+        <v>8843261.395428725</v>
       </c>
       <c r="I7" t="n">
-        <v>3384578.701541331</v>
+        <v>8983324.898493927</v>
       </c>
       <c r="J7" t="n">
-        <v>3173543.562345614</v>
+        <v>8815015.868174465</v>
       </c>
       <c r="K7" t="n">
-        <v>3849552.950846163</v>
+        <v>8747483.494083283</v>
       </c>
       <c r="L7" t="n">
-        <v>2844953.010686878</v>
+        <v>9103555.708536191</v>
       </c>
       <c r="M7" t="n">
-        <v>3714320.869108899</v>
+        <v>9238412.0811956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1489040.332146878</v>
+        <v>18497820.75850774</v>
       </c>
       <c r="C8" t="n">
-        <v>1364349.572606778</v>
+        <v>14904602.57487149</v>
       </c>
       <c r="D8" t="n">
-        <v>1014234.117372849</v>
+        <v>16827740.91744518</v>
       </c>
       <c r="E8" t="n">
-        <v>1293152.914784807</v>
+        <v>17694186.92763891</v>
       </c>
       <c r="F8" t="n">
-        <v>1537181.823198968</v>
+        <v>18537415.26702868</v>
       </c>
       <c r="G8" t="n">
-        <v>1411528.06870995</v>
+        <v>14942031.5314758</v>
       </c>
       <c r="H8" t="n">
-        <v>1060468.881729205</v>
+        <v>16863122.76318134</v>
       </c>
       <c r="I8" t="n">
-        <v>1338462.825266333</v>
+        <v>17727633.62563086</v>
       </c>
       <c r="J8" t="n">
-        <v>1581585.380055458</v>
+        <v>18569032.65677442</v>
       </c>
       <c r="K8" t="n">
-        <v>1455043.402122747</v>
+        <v>14971919.66376842</v>
       </c>
       <c r="L8" t="n">
-        <v>1103113.759213837</v>
+        <v>16891376.21671197</v>
       </c>
       <c r="M8" t="n">
-        <v>1380254.658927073</v>
+        <v>17754341.80627567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2708756.860210465</v>
+        <v>25850945.60479318</v>
       </c>
       <c r="C9" t="n">
-        <v>2716573.74176836</v>
+        <v>23096489.92070115</v>
       </c>
       <c r="D9" t="n">
-        <v>2809600.786258123</v>
+        <v>24429116.07537608</v>
       </c>
       <c r="E9" t="n">
-        <v>2715968.973291283</v>
+        <v>24383149.13086791</v>
       </c>
       <c r="F9" t="n">
-        <v>2787702.45043479</v>
+        <v>26992591.05841853</v>
       </c>
       <c r="G9" t="n">
-        <v>2793938.815581897</v>
+        <v>24215300.28682611</v>
       </c>
       <c r="H9" t="n">
-        <v>2885416.986113829</v>
+        <v>25525548.09932337</v>
       </c>
       <c r="I9" t="n">
-        <v>2790267.308149906</v>
+        <v>25457650.42218227</v>
       </c>
       <c r="J9" t="n">
-        <v>2860513.308447593</v>
+        <v>28045600.27359968</v>
       </c>
       <c r="K9" t="n">
-        <v>2865291.976519465</v>
+        <v>25247247.30840677</v>
       </c>
       <c r="L9" t="n">
-        <v>2955341.633546045</v>
+        <v>26536854.21136532</v>
       </c>
       <c r="M9" t="n">
-        <v>2858792.041382087</v>
+        <v>26448728.48226218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5240281.933880094</v>
+        <v>27560765.19833111</v>
       </c>
       <c r="C10" t="n">
-        <v>6062372.558505042</v>
+        <v>32506367.55066146</v>
       </c>
       <c r="D10" t="n">
-        <v>4896601.485100852</v>
+        <v>37334253.77264285</v>
       </c>
       <c r="E10" t="n">
-        <v>5251531.170383697</v>
+        <v>42972228.66188025</v>
       </c>
       <c r="F10" t="n">
-        <v>5912485.080603703</v>
+        <v>48044936.91804579</v>
       </c>
       <c r="G10" t="n">
-        <v>6721130.531819582</v>
+        <v>52580834.48468375</v>
       </c>
       <c r="H10" t="n">
-        <v>5542183.210685831</v>
+        <v>57007210.44373481</v>
       </c>
       <c r="I10" t="n">
-        <v>5884200.194960768</v>
+        <v>62251705.6938073</v>
       </c>
       <c r="J10" t="n">
-        <v>6532499.679524711</v>
+        <v>66938804.31372745</v>
       </c>
       <c r="K10" t="n">
-        <v>7328743.814502667</v>
+        <v>71096804.83877802</v>
       </c>
       <c r="L10" t="n">
-        <v>6137643.223942632</v>
+        <v>75152842.09096743</v>
       </c>
       <c r="M10" t="n">
-        <v>6467750.024256923</v>
+        <v>80034405.79433122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3867115.664162437</v>
+        <v>15501148.67168761</v>
       </c>
       <c r="C11" t="n">
-        <v>2907841.598628832</v>
+        <v>15917188.03599858</v>
       </c>
       <c r="D11" t="n">
-        <v>4296043.692361762</v>
+        <v>17141655.87603521</v>
       </c>
       <c r="E11" t="n">
-        <v>2890214.988004486</v>
+        <v>17461665.18560446</v>
       </c>
       <c r="F11" t="n">
-        <v>4038036.60455216</v>
+        <v>17581422.39532689</v>
       </c>
       <c r="G11" t="n">
-        <v>3075339.845158147</v>
+        <v>17955779.97119729</v>
       </c>
       <c r="H11" t="n">
-        <v>4460187.784515854</v>
+        <v>19139401.18764106</v>
       </c>
       <c r="I11" t="n">
-        <v>3051072.092764539</v>
+        <v>19419382.30453055</v>
       </c>
       <c r="J11" t="n">
-        <v>4195672.543879762</v>
+        <v>19499913.35384424</v>
       </c>
       <c r="K11" t="n">
-        <v>3229819.122929322</v>
+        <v>19835830.7315093</v>
       </c>
       <c r="L11" t="n">
-        <v>4611573.612915745</v>
+        <v>20981781.96387435</v>
       </c>
       <c r="M11" t="n">
-        <v>3199426.418153529</v>
+        <v>21224847.87827425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>684596.9178266134</v>
+        <v>37566848.82531357</v>
       </c>
       <c r="C12" t="n">
-        <v>405867.7935061457</v>
+        <v>37962306.11025219</v>
       </c>
       <c r="D12" t="n">
-        <v>203429.3510112059</v>
+        <v>41489921.06499696</v>
       </c>
       <c r="E12" t="n">
-        <v>357791.6118968932</v>
+        <v>42369810.15465394</v>
       </c>
       <c r="F12" t="n">
-        <v>685846.7220204764</v>
+        <v>37707025.65539248</v>
       </c>
       <c r="G12" t="n">
-        <v>406975.7965499694</v>
+        <v>38099675.34707504</v>
       </c>
       <c r="H12" t="n">
-        <v>204411.6414781053</v>
+        <v>41624538.94167936</v>
       </c>
       <c r="I12" t="n">
-        <v>358662.4529715095</v>
+        <v>42501731.77802182</v>
       </c>
       <c r="J12" t="n">
-        <v>686618.7586051666</v>
+        <v>37836305.02854049</v>
       </c>
       <c r="K12" t="n">
-        <v>407660.2388729993</v>
+        <v>38226365.39147311</v>
       </c>
       <c r="L12" t="n">
-        <v>205018.4278698959</v>
+        <v>41748691.51883651</v>
       </c>
       <c r="M12" t="n">
-        <v>359200.394172504</v>
+        <v>42623397.71071603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1484180.919697603</v>
+        <v>37300996.65394724</v>
       </c>
       <c r="C13" t="n">
-        <v>1595815.104228154</v>
+        <v>33985010.16210826</v>
       </c>
       <c r="D13" t="n">
-        <v>1792052.334005652</v>
+        <v>38022615.02295774</v>
       </c>
       <c r="E13" t="n">
-        <v>1894999.560623197</v>
+        <v>37758935.67614567</v>
       </c>
       <c r="F13" t="n">
-        <v>2113318.363771056</v>
+        <v>37411033.39985234</v>
       </c>
       <c r="G13" t="n">
-        <v>2212369.695963528</v>
+        <v>34090280.05163238</v>
       </c>
       <c r="H13" t="n">
-        <v>2396275.732518857</v>
+        <v>38123324.5591156</v>
       </c>
       <c r="I13" t="n">
-        <v>2487138.391806443</v>
+        <v>37855282.41612022</v>
       </c>
       <c r="J13" t="n">
-        <v>2693614.320958153</v>
+        <v>37503206.34253348</v>
       </c>
       <c r="K13" t="n">
-        <v>2781059.638581863</v>
+        <v>34178460.00836726</v>
       </c>
       <c r="L13" t="n">
-        <v>2953591.782768323</v>
+        <v>38207684.50839772</v>
       </c>
       <c r="M13" t="n">
-        <v>3033308.029404762</v>
+        <v>37935987.84291328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142149.5863906799</v>
+        <v>3117423.028151588</v>
       </c>
       <c r="C14" t="n">
-        <v>-22843.55212801654</v>
+        <v>4141851.038380769</v>
       </c>
       <c r="D14" t="n">
-        <v>-383090.7236705579</v>
+        <v>5203549.72442436</v>
       </c>
       <c r="E14" t="n">
-        <v>144198.3677659423</v>
+        <v>6258701.215978035</v>
       </c>
       <c r="F14" t="n">
-        <v>153369.3384179126</v>
+        <v>7251801.509890142</v>
       </c>
       <c r="G14" t="n">
-        <v>-12358.13574572562</v>
+        <v>8193467.564009179</v>
       </c>
       <c r="H14" t="n">
-        <v>-373291.5804770935</v>
+        <v>9174061.022132711</v>
       </c>
       <c r="I14" t="n">
-        <v>153356.1545266278</v>
+        <v>10149730.84958446</v>
       </c>
       <c r="J14" t="n">
-        <v>161927.7456886749</v>
+        <v>11064940.54272496</v>
       </c>
       <c r="K14" t="n">
-        <v>-4359.878423696096</v>
+        <v>11930275.20950942</v>
       </c>
       <c r="L14" t="n">
-        <v>-365816.8111461289</v>
+        <v>12836065.281413</v>
       </c>
       <c r="M14" t="n">
-        <v>160341.6982896723</v>
+        <v>13738429.13624507</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>911103.7436933462</v>
+        <v>4019547.823972668</v>
       </c>
       <c r="C15" t="n">
-        <v>1015014.240738433</v>
+        <v>3523542.605592983</v>
       </c>
       <c r="D15" t="n">
-        <v>1025929.128972834</v>
+        <v>3576867.969369306</v>
       </c>
       <c r="E15" t="n">
-        <v>1085068.261443006</v>
+        <v>3820013.748092585</v>
       </c>
       <c r="F15" t="n">
-        <v>1160754.650786717</v>
+        <v>4198686.150541299</v>
       </c>
       <c r="G15" t="n">
-        <v>1259372.777809102</v>
+        <v>3699098.146317018</v>
       </c>
       <c r="H15" t="n">
-        <v>1265107.489406289</v>
+        <v>3748912.380351903</v>
       </c>
       <c r="I15" t="n">
-        <v>1319176.260227971</v>
+        <v>3988617.252307115</v>
       </c>
       <c r="J15" t="n">
-        <v>1389899.774934976</v>
+        <v>4363917.566494094</v>
       </c>
       <c r="K15" t="n">
-        <v>1483660.235706474</v>
+        <v>3861024.916136862</v>
       </c>
       <c r="L15" t="n">
-        <v>1484640.259117409</v>
+        <v>3907600.597317737</v>
       </c>
       <c r="M15" t="n">
-        <v>1534055.136777047</v>
+        <v>4144131.687825171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1257697.580987687</v>
+        <v>11267128.40838374</v>
       </c>
       <c r="C16" t="n">
-        <v>1443556.14040374</v>
+        <v>11386045.52850339</v>
       </c>
       <c r="D16" t="n">
-        <v>1532372.420752941</v>
+        <v>10773693.0680426</v>
       </c>
       <c r="E16" t="n">
-        <v>1681322.053865678</v>
+        <v>11436113.83433301</v>
       </c>
       <c r="F16" t="n">
-        <v>1808388.314401013</v>
+        <v>11661241.94453302</v>
       </c>
       <c r="G16" t="n">
-        <v>1983229.494865458</v>
+        <v>11772275.81644206</v>
       </c>
       <c r="H16" t="n">
-        <v>2061248.815150819</v>
+        <v>11152197.79228704</v>
       </c>
       <c r="I16" t="n">
-        <v>2199617.497283095</v>
+        <v>11807047.5253182</v>
       </c>
       <c r="J16" t="n">
-        <v>2316314.494341581</v>
+        <v>12024756.04170196</v>
       </c>
       <c r="K16" t="n">
-        <v>2480993.863712598</v>
+        <v>12128518.73007328</v>
       </c>
       <c r="L16" t="n">
-        <v>2549054.674897569</v>
+        <v>11501314.96408542</v>
       </c>
       <c r="M16" t="n">
-        <v>2677664.082566783</v>
+        <v>12149181.48779379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7274813.666496111</v>
+        <v>4681775.52310863</v>
       </c>
       <c r="C17" t="n">
-        <v>7847257.122169419</v>
+        <v>4591206.841296454</v>
       </c>
       <c r="D17" t="n">
-        <v>8808411.540237045</v>
+        <v>4974582.43699452</v>
       </c>
       <c r="E17" t="n">
-        <v>9255651.339006513</v>
+        <v>4947898.713595225</v>
       </c>
       <c r="F17" t="n">
-        <v>10114956.92429019</v>
+        <v>4872626.476171277</v>
       </c>
       <c r="G17" t="n">
-        <v>10630594.56023703</v>
+        <v>4778238.009339622</v>
       </c>
       <c r="H17" t="n">
-        <v>11536079.3340672</v>
+        <v>5157870.271077852</v>
       </c>
       <c r="I17" t="n">
-        <v>11928762.9393965</v>
+        <v>5127518.13464918</v>
       </c>
       <c r="J17" t="n">
-        <v>12734603.51186304</v>
+        <v>5048650.905621894</v>
       </c>
       <c r="K17" t="n">
-        <v>13197845.49086816</v>
+        <v>4950739.399120341</v>
       </c>
       <c r="L17" t="n">
-        <v>14051982.57540208</v>
+        <v>5326919.13304066</v>
       </c>
       <c r="M17" t="n">
-        <v>14394345.49863751</v>
+        <v>5293183.569387115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1276807.006572411</v>
+        <v>3348318.857585174</v>
       </c>
       <c r="C18" t="n">
-        <v>1811466.84789432</v>
+        <v>3578591.046188333</v>
       </c>
       <c r="D18" t="n">
-        <v>990440.6389192644</v>
+        <v>3420439.480885426</v>
       </c>
       <c r="E18" t="n">
-        <v>1183043.507205219</v>
+        <v>3164237.342734066</v>
       </c>
       <c r="F18" t="n">
-        <v>1288138.044068225</v>
+        <v>3364930.319296613</v>
       </c>
       <c r="G18" t="n">
-        <v>1822081.253628625</v>
+        <v>3593820.158785462</v>
       </c>
       <c r="H18" t="n">
-        <v>1000383.736286479</v>
+        <v>3434401.278740718</v>
       </c>
       <c r="I18" t="n">
-        <v>1192357.753120503</v>
+        <v>3177037.287452368</v>
       </c>
       <c r="J18" t="n">
-        <v>1296863.210258032</v>
+        <v>3376665.096328174</v>
       </c>
       <c r="K18" t="n">
-        <v>1830254.596455534</v>
+        <v>3604578.407747549</v>
       </c>
       <c r="L18" t="n">
-        <v>1008040.155833448</v>
+        <v>3444264.262964362</v>
       </c>
       <c r="M18" t="n">
-        <v>1199529.942213833</v>
+        <v>3186079.507811708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-56436.92251500503</v>
+        <v>5243886.737021837</v>
       </c>
       <c r="C19" t="n">
-        <v>-110943.701571487</v>
+        <v>3688170.221193145</v>
       </c>
       <c r="D19" t="n">
-        <v>-37193.47358148627</v>
+        <v>5036042.274708457</v>
       </c>
       <c r="E19" t="n">
-        <v>-155335.2922397308</v>
+        <v>5573333.722628241</v>
       </c>
       <c r="F19" t="n">
-        <v>-124671.0939065477</v>
+        <v>5235362.327078972</v>
       </c>
       <c r="G19" t="n">
-        <v>-177812.7198583947</v>
+        <v>3679826.201532394</v>
       </c>
       <c r="H19" t="n">
-        <v>-102724.6512226208</v>
+        <v>5027874.827980104</v>
       </c>
       <c r="I19" t="n">
-        <v>-219555.3952567764</v>
+        <v>5565339.112263854</v>
       </c>
       <c r="J19" t="n">
-        <v>-187606.3528165165</v>
+        <v>5227536.895581942</v>
       </c>
       <c r="K19" t="n">
-        <v>-239488.8403874056</v>
+        <v>3672166.368804649</v>
       </c>
       <c r="L19" t="n">
-        <v>-163166.82480533</v>
+        <v>5020377.089684227</v>
       </c>
       <c r="M19" t="n">
-        <v>-278788.3093257467</v>
+        <v>5558000.03821987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1848778.843333421</v>
+        <v>1868368.399100456</v>
       </c>
       <c r="C20" t="n">
-        <v>2225955.742128666</v>
+        <v>2007380.617119242</v>
       </c>
       <c r="D20" t="n">
-        <v>1568242.318335299</v>
+        <v>2857038.142497488</v>
       </c>
       <c r="E20" t="n">
-        <v>1898056.330905414</v>
+        <v>2706756.239495294</v>
       </c>
       <c r="F20" t="n">
-        <v>1808606.942321755</v>
+        <v>1868037.481119102</v>
       </c>
       <c r="G20" t="n">
-        <v>2186796.207087055</v>
+        <v>2007115.882725133</v>
       </c>
       <c r="H20" t="n">
-        <v>1530069.636782842</v>
+        <v>2856826.354974979</v>
       </c>
       <c r="I20" t="n">
-        <v>1860845.633297362</v>
+        <v>2706586.80947151</v>
       </c>
       <c r="J20" t="n">
-        <v>1772333.985846976</v>
+        <v>1867901.937095453</v>
       </c>
       <c r="K20" t="n">
-        <v>2151437.359873814</v>
+        <v>2007007.447502516</v>
       </c>
       <c r="L20" t="n">
-        <v>1495601.86250261</v>
+        <v>2856739.606793927</v>
       </c>
       <c r="M20" t="n">
-        <v>1827246.476156625</v>
+        <v>2706517.410924303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1312448.431301132</v>
+        <v>4270568.709750301</v>
       </c>
       <c r="C21" t="n">
-        <v>1329311.743782438</v>
+        <v>4045246.075406588</v>
       </c>
       <c r="D21" t="n">
-        <v>1275681.519615964</v>
+        <v>4392372.206757704</v>
       </c>
       <c r="E21" t="n">
-        <v>1546331.407085628</v>
+        <v>4120305.318562902</v>
       </c>
       <c r="F21" t="n">
-        <v>1323894.052725173</v>
+        <v>4322478.859643786</v>
       </c>
       <c r="G21" t="n">
-        <v>1340528.150003508</v>
+        <v>4096116.859843739</v>
       </c>
       <c r="H21" t="n">
-        <v>1286673.30100162</v>
+        <v>4442224.436322849</v>
       </c>
       <c r="I21" t="n">
-        <v>1557103.062074648</v>
+        <v>4169159.387162657</v>
       </c>
       <c r="J21" t="n">
-        <v>1334449.98966856</v>
+        <v>4370354.75284994</v>
       </c>
       <c r="K21" t="n">
-        <v>1350872.688968629</v>
+        <v>4143034.163069095</v>
       </c>
       <c r="L21" t="n">
-        <v>1296810.675540216</v>
+        <v>4488202.342833365</v>
       </c>
       <c r="M21" t="n">
-        <v>1567037.420955433</v>
+        <v>4214216.705929165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>748151.1659356632</v>
+        <v>10633474.94609284</v>
       </c>
       <c r="C22" t="n">
-        <v>776170.9952711419</v>
+        <v>9617374.088117715</v>
       </c>
       <c r="D22" t="n">
-        <v>621121.0770873933</v>
+        <v>11255568.91374468</v>
       </c>
       <c r="E22" t="n">
-        <v>480604.6420588434</v>
+        <v>10470298.76039</v>
       </c>
       <c r="F22" t="n">
-        <v>790512.1210953929</v>
+        <v>10941277.48316781</v>
       </c>
       <c r="G22" t="n">
-        <v>817634.6558561075</v>
+        <v>9919019.91115413</v>
       </c>
       <c r="H22" t="n">
-        <v>661706.4496934296</v>
+        <v>11551181.17029068</v>
       </c>
       <c r="I22" t="n">
-        <v>520330.3306819086</v>
+        <v>10759998.13477739</v>
       </c>
       <c r="J22" t="n">
-        <v>829396.3356594848</v>
+        <v>11225182.24578169</v>
       </c>
       <c r="K22" t="n">
-        <v>855695.2205605408</v>
+        <v>10197245.96671703</v>
       </c>
       <c r="L22" t="n">
-        <v>698960.8111832996</v>
+        <v>11823842.10518092</v>
       </c>
       <c r="M22" t="n">
-        <v>556795.5660454882</v>
+        <v>11027205.26340093</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4436.26301670235</v>
+        <v>8764842.756823629</v>
       </c>
       <c r="C23" t="n">
-        <v>45569.82243447421</v>
+        <v>6790703.386369986</v>
       </c>
       <c r="D23" t="n">
-        <v>-17663.40007478192</v>
+        <v>7229478.522869911</v>
       </c>
       <c r="E23" t="n">
-        <v>6516.161034555844</v>
+        <v>7035019.173648005</v>
       </c>
       <c r="F23" t="n">
-        <v>-3692.467230175876</v>
+        <v>8765282.632413195</v>
       </c>
       <c r="G23" t="n">
-        <v>46273.20686453306</v>
+        <v>6791055.288361295</v>
       </c>
       <c r="H23" t="n">
-        <v>-16998.23140159046</v>
+        <v>7229760.045678688</v>
       </c>
       <c r="I23" t="n">
-        <v>7145.190260804514</v>
+        <v>7035244.392867615</v>
       </c>
       <c r="J23" t="n">
-        <v>-3097.61394946355</v>
+        <v>8765462.808566958</v>
       </c>
       <c r="K23" t="n">
-        <v>46835.74102162536</v>
+        <v>6791199.429906768</v>
       </c>
       <c r="L23" t="n">
-        <v>-16466.26042966171</v>
+        <v>7229875.359413039</v>
       </c>
       <c r="M23" t="n">
-        <v>7648.258583691065</v>
+        <v>7035336.644253475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11888254.29173929</v>
+        <v>9514670.22677464</v>
       </c>
       <c r="C24" t="n">
-        <v>11964927.81028638</v>
+        <v>7526364.998999441</v>
       </c>
       <c r="D24" t="n">
-        <v>10325774.65772302</v>
+        <v>8706150.844709495</v>
       </c>
       <c r="E24" t="n">
-        <v>11206943.54966927</v>
+        <v>8945113.295438124</v>
       </c>
       <c r="F24" t="n">
-        <v>11959052.13005426</v>
+        <v>9820955.452045554</v>
       </c>
       <c r="G24" t="n">
-        <v>12034306.14346273</v>
+        <v>7826524.260083547</v>
       </c>
       <c r="H24" t="n">
-        <v>10393761.94700882</v>
+        <v>9000306.666084377</v>
       </c>
       <c r="I24" t="n">
-        <v>11273567.68566114</v>
+        <v>9233385.750987934</v>
       </c>
       <c r="J24" t="n">
-        <v>12024340.44413904</v>
+        <v>10103462.21407496</v>
       </c>
       <c r="K24" t="n">
-        <v>12098285.41902965</v>
+        <v>8103380.647351343</v>
       </c>
       <c r="L24" t="n">
-        <v>10456458.43043697</v>
+        <v>9271625.690876422</v>
       </c>
       <c r="M24" t="n">
-        <v>11335007.09708657</v>
+        <v>9499278.16524855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2737944.581525997</v>
+        <v>5354531.87920998</v>
       </c>
       <c r="C25" t="n">
-        <v>2839357.2610285</v>
+        <v>4642418.441284943</v>
       </c>
       <c r="D25" t="n">
-        <v>2267774.484017763</v>
+        <v>4963014.839934379</v>
       </c>
       <c r="E25" t="n">
-        <v>2885337.817257924</v>
+        <v>5520413.289315295</v>
       </c>
       <c r="F25" t="n">
-        <v>2758203.5273092</v>
+        <v>5357447.864472635</v>
       </c>
       <c r="G25" t="n">
-        <v>2858349.3067258</v>
+        <v>4644998.697318999</v>
       </c>
       <c r="H25" t="n">
-        <v>2285578.855658236</v>
+        <v>4965298.020609723</v>
       </c>
       <c r="I25" t="n">
-        <v>2902028.786443889</v>
+        <v>5522433.598124756</v>
       </c>
       <c r="J25" t="n">
-        <v>2773850.721042988</v>
+        <v>5359235.566921968</v>
       </c>
       <c r="K25" t="n">
-        <v>2873017.997861397</v>
+        <v>4646580.574323339</v>
       </c>
       <c r="L25" t="n">
-        <v>2299330.235189437</v>
+        <v>4966697.769688657</v>
       </c>
       <c r="M25" t="n">
-        <v>2914920.218764815</v>
+        <v>5523672.188406173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9228455.440062456</v>
+        <v>11152585.15810281</v>
       </c>
       <c r="C26" t="n">
-        <v>10367094.83612268</v>
+        <v>10404161.59175844</v>
       </c>
       <c r="D26" t="n">
-        <v>9562373.356351534</v>
+        <v>10864516.44178588</v>
       </c>
       <c r="E26" t="n">
-        <v>10053781.5500122</v>
+        <v>10337414.10588236</v>
       </c>
       <c r="F26" t="n">
-        <v>9730813.034731338</v>
+        <v>11459546.94091226</v>
       </c>
       <c r="G26" t="n">
-        <v>10859402.59680441</v>
+        <v>10704981.94264382</v>
       </c>
       <c r="H26" t="n">
-        <v>10044832.33338204</v>
+        <v>11159318.23332674</v>
       </c>
       <c r="I26" t="n">
-        <v>10526588.7716473</v>
+        <v>10626317.75232752</v>
       </c>
       <c r="J26" t="n">
-        <v>10194161.58760978</v>
+        <v>11742670.44736403</v>
       </c>
       <c r="K26" t="n">
-        <v>11313481.70480128</v>
+        <v>10982440.95325815</v>
       </c>
       <c r="L26" t="n">
-        <v>10489827.43488467</v>
+        <v>11431226.07854904</v>
       </c>
       <c r="M26" t="n">
-        <v>10962681.5952852</v>
+        <v>10892785.49518343</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13506735.21878429</v>
+        <v>4756028.2777238</v>
       </c>
       <c r="C27" t="n">
-        <v>15235572.96777601</v>
+        <v>4104409.623083035</v>
       </c>
       <c r="D27" t="n">
-        <v>13089984.62735787</v>
+        <v>4402165.806445446</v>
       </c>
       <c r="E27" t="n">
-        <v>13754658.06185671</v>
+        <v>4881214.512636937</v>
       </c>
       <c r="F27" t="n">
-        <v>14161125.96054833</v>
+        <v>4837906.86130416</v>
       </c>
       <c r="G27" t="n">
-        <v>15876875.29250776</v>
+        <v>4184646.939052922</v>
       </c>
       <c r="H27" t="n">
-        <v>13718460.31544247</v>
+        <v>4480794.754242679</v>
       </c>
       <c r="I27" t="n">
-        <v>14370563.65783069</v>
+        <v>4958267.332225522</v>
       </c>
       <c r="J27" t="n">
-        <v>14764712.87782142</v>
+        <v>4913415.146393534</v>
       </c>
       <c r="K27" t="n">
-        <v>16468389.91599013</v>
+        <v>4258641.650052216</v>
       </c>
       <c r="L27" t="n">
-        <v>14298144.10211935</v>
+        <v>4553306.230955314</v>
       </c>
       <c r="M27" t="n">
-        <v>14938653.23532541</v>
+        <v>5029325.306289333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14997426.07680572</v>
+        <v>12836166.26740328</v>
       </c>
       <c r="C28" t="n">
-        <v>16129276.04856601</v>
+        <v>9803701.085525442</v>
       </c>
       <c r="D28" t="n">
-        <v>16608391.06294532</v>
+        <v>11500132.45591827</v>
       </c>
       <c r="E28" t="n">
-        <v>16954670.18171372</v>
+        <v>12233016.35611198</v>
       </c>
       <c r="F28" t="n">
-        <v>17513685.4221767</v>
+        <v>13104589.05213188</v>
       </c>
       <c r="G28" t="n">
-        <v>18142283.52486279</v>
+        <v>10062396.0591415</v>
       </c>
       <c r="H28" t="n">
-        <v>18218797.04398275</v>
+        <v>11749452.16043544</v>
       </c>
       <c r="I28" t="n">
-        <v>18242994.96654366</v>
+        <v>12473300.55719887</v>
       </c>
       <c r="J28" t="n">
-        <v>18544345.25004065</v>
+        <v>13336165.20213486</v>
       </c>
       <c r="K28" t="n">
-        <v>18966811.38715395</v>
+        <v>10285579.74332725</v>
       </c>
       <c r="L28" t="n">
-        <v>18878419.33381568</v>
+        <v>11964547.52706143</v>
       </c>
       <c r="M28" t="n">
-        <v>18770692.79841001</v>
+        <v>12680600.73199777</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17316777.46494951</v>
+        <v>2500496.156097149</v>
       </c>
       <c r="C29" t="n">
-        <v>17752657.04162928</v>
+        <v>2579125.041535496</v>
       </c>
       <c r="D29" t="n">
-        <v>18485258.24018923</v>
+        <v>2650700.211602724</v>
       </c>
       <c r="E29" t="n">
-        <v>19964957.68361047</v>
+        <v>2791431.949922186</v>
       </c>
       <c r="F29" t="n">
-        <v>20687005.5395247</v>
+        <v>2878745.253396666</v>
       </c>
       <c r="G29" t="n">
-        <v>21055475.87689048</v>
+        <v>2949807.192214412</v>
       </c>
       <c r="H29" t="n">
-        <v>21722016.11448564</v>
+        <v>3013966.793897146</v>
       </c>
       <c r="I29" t="n">
-        <v>23136975.90785296</v>
+        <v>3147431.313717225</v>
       </c>
       <c r="J29" t="n">
-        <v>23795578.99657193</v>
+        <v>3227622.780809179</v>
       </c>
       <c r="K29" t="n">
-        <v>24101873.55014668</v>
+        <v>3291705.356963786</v>
       </c>
       <c r="L29" t="n">
-        <v>24707481.60592563</v>
+        <v>3349025.219488355</v>
       </c>
       <c r="M29" t="n">
-        <v>26062727.94568593</v>
+        <v>3475786.830459919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43986722.88667358</v>
+        <v>778870.0604408185</v>
       </c>
       <c r="C30" t="n">
-        <v>39424656.01498596</v>
+        <v>665169.1873083209</v>
       </c>
       <c r="D30" t="n">
-        <v>39788001.05204316</v>
+        <v>647766.5274641038</v>
       </c>
       <c r="E30" t="n">
-        <v>43284116.52397532</v>
+        <v>682304.7846839294</v>
       </c>
       <c r="F30" t="n">
-        <v>44293972.72235258</v>
+        <v>809264.6635929279</v>
       </c>
       <c r="G30" t="n">
-        <v>39725751.88231543</v>
+        <v>694955.8462264499</v>
       </c>
       <c r="H30" t="n">
-        <v>40083066.2100848</v>
+        <v>676957.4020764405</v>
       </c>
       <c r="I30" t="n">
-        <v>43573271.76301041</v>
+        <v>710911.7916992261</v>
       </c>
       <c r="J30" t="n">
-        <v>44577336.41332976</v>
+        <v>837299.481365307</v>
       </c>
       <c r="K30" t="n">
-        <v>40003440.02530795</v>
+        <v>722429.9195229067</v>
       </c>
       <c r="L30" t="n">
-        <v>40355192.48177724</v>
+        <v>703881.9467489853</v>
       </c>
       <c r="M30" t="n">
-        <v>43839947.56323435</v>
+        <v>737297.7992635778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37063237.41291085</v>
+        <v>695513.2148350297</v>
       </c>
       <c r="C31" t="n">
-        <v>37185074.77520753</v>
+        <v>620850.8212254313</v>
       </c>
       <c r="D31" t="n">
-        <v>33841691.30501329</v>
+        <v>713128.3377409546</v>
       </c>
       <c r="E31" t="n">
-        <v>37855081.38507302</v>
+        <v>751417.3789675031</v>
       </c>
       <c r="F31" t="n">
-        <v>37128625.23655381</v>
+        <v>711055.6075693215</v>
       </c>
       <c r="G31" t="n">
-        <v>37246426.52463882</v>
+        <v>636074.7338955906</v>
       </c>
       <c r="H31" t="n">
-        <v>33899256.1075801</v>
+        <v>728040.2963403071</v>
       </c>
       <c r="I31" t="n">
-        <v>37909092.99069587</v>
+        <v>766023.7757648696</v>
       </c>
       <c r="J31" t="n">
-        <v>37179302.9669008</v>
+        <v>725362.7038491747</v>
       </c>
       <c r="K31" t="n">
-        <v>37293976.16371187</v>
+        <v>650088.6626420624</v>
       </c>
       <c r="L31" t="n">
-        <v>33943870.73732962</v>
+        <v>741767.0648661987</v>
       </c>
       <c r="M31" t="n">
-        <v>37950953.77505702</v>
+        <v>779469.2682867898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>795736.3894793954</v>
+        <v>1915190.320396477</v>
       </c>
       <c r="C32" t="n">
-        <v>961773.3826258729</v>
+        <v>1850835.970671633</v>
       </c>
       <c r="D32" t="n">
-        <v>1115030.156769712</v>
+        <v>1896825.72267403</v>
       </c>
       <c r="E32" t="n">
-        <v>1341271.906405538</v>
+        <v>1938092.70057355</v>
       </c>
       <c r="F32" t="n">
-        <v>1490515.496101438</v>
+        <v>2000062.733039957</v>
       </c>
       <c r="G32" t="n">
-        <v>1642656.708437558</v>
+        <v>1934010.550276354</v>
       </c>
       <c r="H32" t="n">
-        <v>1782295.621360862</v>
+        <v>1978336.43359823</v>
       </c>
       <c r="I32" t="n">
-        <v>1995191.870894705</v>
+        <v>2017972.827734317</v>
       </c>
       <c r="J32" t="n">
-        <v>2131356.87430692</v>
+        <v>2078344.895505134</v>
       </c>
       <c r="K32" t="n">
-        <v>2270681.075824961</v>
+        <v>2010726.714584542</v>
       </c>
       <c r="L32" t="n">
-        <v>2397759.321811679</v>
+        <v>2053517.926812331</v>
       </c>
       <c r="M32" t="n">
-        <v>2598346.121339496</v>
+        <v>2091650.350233949</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4270467.853696047</v>
+        <v>2309898.012132849</v>
       </c>
       <c r="C33" t="n">
-        <v>4508826.882076664</v>
+        <v>2212573.658117712</v>
       </c>
       <c r="D33" t="n">
-        <v>4006656.979641744</v>
+        <v>2311175.042567686</v>
       </c>
       <c r="E33" t="n">
-        <v>4053841.877754194</v>
+        <v>2378492.191792924</v>
       </c>
       <c r="F33" t="n">
-        <v>4450435.256038396</v>
+        <v>2407666.026681001</v>
       </c>
       <c r="G33" t="n">
-        <v>4685194.898785268</v>
+        <v>2308384.434253376</v>
       </c>
       <c r="H33" t="n">
-        <v>4179497.599181023</v>
+        <v>2405067.762657623</v>
       </c>
       <c r="I33" t="n">
-        <v>4223225.648804245</v>
+        <v>2470505.253803865</v>
       </c>
       <c r="J33" t="n">
-        <v>4616431.316290979</v>
+        <v>2497837.059882717</v>
       </c>
       <c r="K33" t="n">
-        <v>4847871.00316387</v>
+        <v>2396750.314607389</v>
       </c>
       <c r="L33" t="n">
-        <v>4338920.14749651</v>
+        <v>2491664.627897833</v>
       </c>
       <c r="M33" t="n">
-        <v>4379459.712857396</v>
+        <v>2555368.518215293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10229082.827443</v>
+        <v>2450348.497845158</v>
       </c>
       <c r="C34" t="n">
-        <v>10541708.8810779</v>
+        <v>2070582.85657099</v>
       </c>
       <c r="D34" t="n">
-        <v>10671282.42946813</v>
+        <v>2320008.797729965</v>
       </c>
       <c r="E34" t="n">
-        <v>10069475.12592928</v>
+        <v>2192282.450676269</v>
       </c>
       <c r="F34" t="n">
-        <v>10602191.09820712</v>
+        <v>2450628.575965868</v>
       </c>
       <c r="G34" t="n">
-        <v>10907348.92685718</v>
+        <v>2070806.91906756</v>
       </c>
       <c r="H34" t="n">
-        <v>11029603.73605207</v>
+        <v>2320188.047727222</v>
       </c>
       <c r="I34" t="n">
-        <v>10420624.18696382</v>
+        <v>2192425.850674076</v>
       </c>
       <c r="J34" t="n">
-        <v>10946311.47508613</v>
+        <v>2450743.295964114</v>
       </c>
       <c r="K34" t="n">
-        <v>11244581.30741507</v>
+        <v>2070898.695066157</v>
       </c>
       <c r="L34" t="n">
-        <v>11360085.9920817</v>
+        <v>2320261.4685261</v>
       </c>
       <c r="M34" t="n">
-        <v>10744491.43058306</v>
+        <v>2192484.587313178</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4576586.721235849</v>
+        <v>1534278.717522508</v>
       </c>
       <c r="C35" t="n">
-        <v>4509165.934007805</v>
+        <v>1513521.47360711</v>
       </c>
       <c r="D35" t="n">
-        <v>4421304.598608744</v>
+        <v>1557005.31508504</v>
       </c>
       <c r="E35" t="n">
-        <v>4807347.374009263</v>
+        <v>1726272.349114728</v>
       </c>
       <c r="F35" t="n">
-        <v>4761418.330160435</v>
+        <v>1597739.106282079</v>
       </c>
       <c r="G35" t="n">
-        <v>4690300.837276467</v>
+        <v>1575712.430032839</v>
       </c>
       <c r="H35" t="n">
-        <v>4598816.731804179</v>
+        <v>1617952.232315571</v>
       </c>
       <c r="I35" t="n">
-        <v>4981309.19397312</v>
+        <v>1786000.112336077</v>
       </c>
       <c r="J35" t="n">
-        <v>4931900.844568728</v>
+        <v>1656272.102888485</v>
       </c>
       <c r="K35" t="n">
-        <v>4857373.63362346</v>
+        <v>1633074.559584358</v>
       </c>
       <c r="L35" t="n">
-        <v>4762548.005806588</v>
+        <v>1674166.916296489</v>
       </c>
       <c r="M35" t="n">
-        <v>5141765.777406216</v>
+        <v>1841090.303718117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2782114.893257906</v>
+        <v>1330632.245590437</v>
       </c>
       <c r="C36" t="n">
-        <v>3009533.872082591</v>
+        <v>1336941.76456778</v>
       </c>
       <c r="D36" t="n">
-        <v>3259871.525033907</v>
+        <v>1568365.263292984</v>
       </c>
       <c r="E36" t="n">
-        <v>3119641.62623783</v>
+        <v>1417985.082366359</v>
       </c>
       <c r="F36" t="n">
-        <v>2813005.030756653</v>
+        <v>1367525.439024925</v>
       </c>
       <c r="G36" t="n">
-        <v>3038339.268275653</v>
+        <v>1373096.974946364</v>
       </c>
       <c r="H36" t="n">
-        <v>3286732.876812381</v>
+        <v>1603797.252660912</v>
       </c>
       <c r="I36" t="n">
-        <v>3144690.135014831</v>
+        <v>1452708.317480283</v>
       </c>
       <c r="J36" t="n">
-        <v>2836363.043306651</v>
+        <v>1401554.097259628</v>
       </c>
       <c r="K36" t="n">
-        <v>3060120.874324265</v>
+        <v>1406444.950083331</v>
       </c>
       <c r="L36" t="n">
-        <v>3307044.466295494</v>
+        <v>1636478.160561113</v>
       </c>
       <c r="M36" t="n">
-        <v>3163630.917728913</v>
+        <v>1484735.501643483</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5800979.250976999</v>
+        <v>4111477.247428167</v>
       </c>
       <c r="C37" t="n">
-        <v>5143193.659082533</v>
+        <v>3575862.327092435</v>
       </c>
       <c r="D37" t="n">
-        <v>3622529.354484071</v>
+        <v>4049628.974781226</v>
       </c>
       <c r="E37" t="n">
-        <v>4998099.197375603</v>
+        <v>4458919.697165574</v>
       </c>
       <c r="F37" t="n">
-        <v>5800983.813895768</v>
+        <v>4151026.084257985</v>
       </c>
       <c r="G37" t="n">
-        <v>5143197.309417596</v>
+        <v>3613543.349082327</v>
       </c>
       <c r="H37" t="n">
-        <v>3622532.274752161</v>
+        <v>4085530.395202577</v>
       </c>
       <c r="I37" t="n">
-        <v>4998101.533590104</v>
+        <v>4493125.563148092</v>
       </c>
       <c r="J37" t="n">
-        <v>5800985.682867394</v>
+        <v>4183616.473548493</v>
       </c>
       <c r="K37" t="n">
-        <v>5143198.804594917</v>
+        <v>3644594.557511012</v>
       </c>
       <c r="L37" t="n">
-        <v>3622533.470894033</v>
+        <v>4115115.115295579</v>
       </c>
       <c r="M37" t="n">
-        <v>4998102.490503617</v>
+        <v>4521313.054304563</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2995851.10107459</v>
+        <v>3691630.463419919</v>
       </c>
       <c r="C38" t="n">
-        <v>2271587.759682599</v>
+        <v>3686702.514157897</v>
       </c>
       <c r="D38" t="n">
-        <v>2367235.370538253</v>
+        <v>3809000.143783259</v>
       </c>
       <c r="E38" t="n">
-        <v>3183977.364849945</v>
+        <v>3608128.103941956</v>
       </c>
       <c r="F38" t="n">
-        <v>2995675.645839367</v>
+        <v>3804895.561282631</v>
       </c>
       <c r="G38" t="n">
-        <v>2271447.395494419</v>
+        <v>3797701.94839118</v>
       </c>
       <c r="H38" t="n">
-        <v>2367123.079187709</v>
+        <v>3917779.2348943</v>
       </c>
       <c r="I38" t="n">
-        <v>3183887.531769509</v>
+        <v>3714731.265883083</v>
       </c>
       <c r="J38" t="n">
-        <v>2995603.779375018</v>
+        <v>3909366.319585306</v>
       </c>
       <c r="K38" t="n">
-        <v>2271389.90232294</v>
+        <v>3900082.957937251</v>
       </c>
       <c r="L38" t="n">
-        <v>2367077.084650526</v>
+        <v>4018112.297331775</v>
       </c>
       <c r="M38" t="n">
-        <v>3183850.736139762</v>
+        <v>3813057.346693532</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4033587.331656781</v>
+        <v>5233385.370395977</v>
       </c>
       <c r="C39" t="n">
-        <v>4255188.006212049</v>
+        <v>5225263.919770034</v>
       </c>
       <c r="D39" t="n">
-        <v>4029794.072662741</v>
+        <v>5493650.514398624</v>
       </c>
       <c r="E39" t="n">
-        <v>4376866.753304611</v>
+        <v>5390479.88922435</v>
       </c>
       <c r="F39" t="n">
-        <v>4091526.995467676</v>
+        <v>5429819.872283077</v>
       </c>
       <c r="G39" t="n">
-        <v>4311967.690877551</v>
+        <v>5416199.356715581</v>
       </c>
       <c r="H39" t="n">
-        <v>4085437.001507414</v>
+        <v>5679240.829396038</v>
       </c>
       <c r="I39" t="n">
-        <v>4431395.684711207</v>
+        <v>5570874.715726161</v>
       </c>
       <c r="J39" t="n">
-        <v>4144964.23218549</v>
+        <v>5605164.654843912</v>
       </c>
       <c r="K39" t="n">
-        <v>4364335.089144413</v>
+        <v>5586635.468257826</v>
       </c>
       <c r="L39" t="n">
-        <v>4136755.979989061</v>
+        <v>5844905.685192715</v>
       </c>
       <c r="M39" t="n">
-        <v>4481687.233261677</v>
+        <v>5731901.88419293</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10070881.70722552</v>
+        <v>5407516.349025231</v>
       </c>
       <c r="C40" t="n">
-        <v>10441722.53057061</v>
+        <v>5052965.788547857</v>
       </c>
       <c r="D40" t="n">
-        <v>9429454.489971083</v>
+        <v>5363829.313477611</v>
       </c>
       <c r="E40" t="n">
-        <v>11071405.46998106</v>
+        <v>5271726.005493543</v>
       </c>
       <c r="F40" t="n">
-        <v>10365001.94806507</v>
+        <v>5588845.109862747</v>
       </c>
       <c r="G40" t="n">
-        <v>10729959.45896211</v>
+        <v>5230667.963084729</v>
       </c>
       <c r="H40" t="n">
-        <v>9711925.790318931</v>
+        <v>5537977.433661532</v>
       </c>
       <c r="I40" t="n">
-        <v>11348226.47263839</v>
+        <v>5442391.152628816</v>
       </c>
       <c r="J40" t="n">
-        <v>10636285.67642205</v>
+        <v>5756096.943623244</v>
       </c>
       <c r="K40" t="n">
-        <v>10995816.67559233</v>
+        <v>5394574.749946589</v>
       </c>
       <c r="L40" t="n">
-        <v>9972465.042202698</v>
+        <v>5698606.074767197</v>
       </c>
       <c r="M40" t="n">
-        <v>11603554.13548145</v>
+        <v>5599807.211093789</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6980058.317485862</v>
+        <v>3079713.75001166</v>
       </c>
       <c r="C41" t="n">
-        <v>8576267.78196574</v>
+        <v>2736486.525412156</v>
       </c>
       <c r="D41" t="n">
-        <v>6639814.008968678</v>
+        <v>2814138.877002077</v>
       </c>
       <c r="E41" t="n">
-        <v>7108737.910601513</v>
+        <v>2866036.682257932</v>
       </c>
       <c r="F41" t="n">
-        <v>6980270.526960995</v>
+        <v>3159173.234220063</v>
       </c>
       <c r="G41" t="n">
-        <v>8576437.549568247</v>
+        <v>2814356.659739351</v>
       </c>
       <c r="H41" t="n">
-        <v>6639949.823068605</v>
+        <v>2890451.451649951</v>
       </c>
       <c r="I41" t="n">
-        <v>7108846.561895791</v>
+        <v>2940822.851560245</v>
       </c>
       <c r="J41" t="n">
-        <v>6980357.448007887</v>
+        <v>3232463.529361088</v>
       </c>
       <c r="K41" t="n">
-        <v>8576507.086414937</v>
+        <v>2886181.001218122</v>
       </c>
       <c r="L41" t="n">
-        <v>6640005.452553296</v>
+        <v>2960839.1614952</v>
       </c>
       <c r="M41" t="n">
-        <v>7108891.065489416</v>
+        <v>3009802.665301013</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9650981.6181807</v>
+        <v>3829313.556230683</v>
       </c>
       <c r="C42" t="n">
-        <v>10280234.89527802</v>
+        <v>3708017.785373587</v>
       </c>
       <c r="D42" t="n">
-        <v>8287134.218315384</v>
+        <v>3819260.791285237</v>
       </c>
       <c r="E42" t="n">
-        <v>9461834.446739092</v>
+        <v>3888653.167900231</v>
       </c>
       <c r="F42" t="n">
-        <v>9878153.852898447</v>
+        <v>3919462.602388713</v>
       </c>
       <c r="G42" t="n">
-        <v>10502863.68530112</v>
+        <v>3796363.544948443</v>
       </c>
       <c r="H42" t="n">
-        <v>8505310.432537735</v>
+        <v>3905839.33612282</v>
       </c>
       <c r="I42" t="n">
-        <v>9675647.136676718</v>
+        <v>3973499.848287216</v>
       </c>
       <c r="J42" t="n">
-        <v>10087690.28903705</v>
+        <v>4002612.061486185</v>
       </c>
       <c r="K42" t="n">
-        <v>10708209.39271668</v>
+        <v>3877849.732936802</v>
       </c>
       <c r="L42" t="n">
-        <v>8706549.22580472</v>
+        <v>3985695.524063748</v>
       </c>
       <c r="M42" t="n">
-        <v>9872861.154078102</v>
+        <v>4051758.641708353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5657213.54997375</v>
+        <v>2916087.458070762</v>
       </c>
       <c r="C43" t="n">
-        <v>5346010.240034605</v>
+        <v>2727211.028962402</v>
       </c>
       <c r="D43" t="n">
-        <v>4643986.919039642</v>
+        <v>2722909.280332409</v>
       </c>
       <c r="E43" t="n">
-        <v>4972591.259211518</v>
+        <v>3120770.705007851</v>
       </c>
       <c r="F43" t="n">
-        <v>5663218.104601286</v>
+        <v>2943547.643223325</v>
       </c>
       <c r="G43" t="n">
-        <v>5351407.58174768</v>
+        <v>2754121.527833549</v>
       </c>
       <c r="H43" t="n">
-        <v>4648838.452479623</v>
+        <v>2749281.096307818</v>
       </c>
       <c r="I43" t="n">
-        <v>4976952.179451615</v>
+        <v>3146614.621212112</v>
       </c>
       <c r="J43" t="n">
-        <v>5667138.02509153</v>
+        <v>2968874.22692904</v>
       </c>
       <c r="K43" t="n">
-        <v>5354931.098758734</v>
+        <v>2778941.134782159</v>
       </c>
       <c r="L43" t="n">
-        <v>4652005.652466993</v>
+        <v>2773603.874943946</v>
       </c>
       <c r="M43" t="n">
-        <v>4979799.095112451</v>
+        <v>3170450.516833144</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13612312.85545619</v>
+        <v>5316094.112792833</v>
       </c>
       <c r="C44" t="n">
-        <v>14476137.23141473</v>
+        <v>5002392.178760188</v>
       </c>
       <c r="D44" t="n">
-        <v>13687175.8014573</v>
+        <v>5137962.881186129</v>
       </c>
       <c r="E44" t="n">
-        <v>14106711.93822254</v>
+        <v>5510396.777793062</v>
       </c>
       <c r="F44" t="n">
-        <v>13887731.41459631</v>
+        <v>5355918.260068038</v>
       </c>
       <c r="G44" t="n">
-        <v>14746041.6735573</v>
+        <v>5040671.297559505</v>
       </c>
       <c r="H44" t="n">
-        <v>13951676.52397844</v>
+        <v>5174756.912855566</v>
       </c>
       <c r="I44" t="n">
-        <v>14365917.12824772</v>
+        <v>5545763.338177824</v>
       </c>
       <c r="J44" t="n">
-        <v>14141747.09325148</v>
+        <v>5389912.729733291</v>
       </c>
       <c r="K44" t="n">
-        <v>14994971.73933406</v>
+        <v>5073346.908510908</v>
       </c>
       <c r="L44" t="n">
-        <v>14195622.79523102</v>
+        <v>5206164.831895375</v>
       </c>
       <c r="M44" t="n">
-        <v>14604979.38483912</v>
+        <v>5575952.747027081</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5556108.541230734</v>
+        <v>3094655.562335207</v>
       </c>
       <c r="C45" t="n">
-        <v>5491179.521893767</v>
+        <v>2962962.041677088</v>
       </c>
       <c r="D45" t="n">
-        <v>4828560.160221586</v>
+        <v>2898530.164717066</v>
       </c>
       <c r="E45" t="n">
-        <v>5115442.769031655</v>
+        <v>3119202.898484852</v>
       </c>
       <c r="F45" t="n">
-        <v>5673827.528982547</v>
+        <v>3107538.031886063</v>
       </c>
       <c r="G45" t="n">
-        <v>5606542.309121704</v>
+        <v>2974959.896085718</v>
       </c>
       <c r="H45" t="n">
-        <v>4941613.907379664</v>
+        <v>2909704.148854379</v>
       </c>
       <c r="I45" t="n">
-        <v>5226233.692635375</v>
+        <v>3129609.585984836</v>
       </c>
       <c r="J45" t="n">
-        <v>5782400.920502267</v>
+        <v>3117230.111576842</v>
       </c>
       <c r="K45" t="n">
-        <v>5712942.553497846</v>
+        <v>2983986.438751916</v>
       </c>
       <c r="L45" t="n">
-        <v>5045884.501167338</v>
+        <v>2918110.85568142</v>
       </c>
       <c r="M45" t="n">
-        <v>5328417.261785825</v>
+        <v>3137439.019943031</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12782733.26794021</v>
+        <v>2086865.397269933</v>
       </c>
       <c r="C46" t="n">
-        <v>13111080.64929144</v>
+        <v>2037853.687729001</v>
       </c>
       <c r="D46" t="n">
-        <v>10124525.94655824</v>
+        <v>2171194.53784799</v>
       </c>
       <c r="E46" t="n">
-        <v>11863941.1029938</v>
+        <v>2189556.855860821</v>
       </c>
       <c r="F46" t="n">
-        <v>13189586.70842505</v>
+        <v>2087059.186096692</v>
       </c>
       <c r="G46" t="n">
-        <v>13508710.66263672</v>
+        <v>2038025.539689619</v>
       </c>
       <c r="H46" t="n">
-        <v>10513141.62920934</v>
+        <v>2171346.936192425</v>
       </c>
       <c r="I46" t="n">
-        <v>12243746.81114904</v>
+        <v>2189692.00273551</v>
       </c>
       <c r="J46" t="n">
-        <v>13560782.16549777</v>
+        <v>2087179.034365424</v>
       </c>
       <c r="K46" t="n">
-        <v>13871491.06428121</v>
+        <v>2038131.821152295</v>
       </c>
       <c r="L46" t="n">
-        <v>10867697.74596578</v>
+        <v>2171441.186609458</v>
       </c>
       <c r="M46" t="n">
-        <v>12590265.08876151</v>
+        <v>2189775.584019462</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2320617.289085777</v>
+        <v>1721008.086842549</v>
       </c>
       <c r="C47" t="n">
-        <v>2405509.038359975</v>
+        <v>1755431.924955677</v>
       </c>
       <c r="D47" t="n">
-        <v>2472353.930017144</v>
+        <v>1712127.450259254</v>
       </c>
       <c r="E47" t="n">
-        <v>2532716.075463682</v>
+        <v>1730588.925916228</v>
       </c>
       <c r="F47" t="n">
-        <v>2653929.433504282</v>
+        <v>1782514.298594008</v>
       </c>
       <c r="G47" t="n">
-        <v>2732154.38143463</v>
+        <v>1815707.311384323</v>
       </c>
       <c r="H47" t="n">
-        <v>2792465.818944871</v>
+        <v>1771196.641901291</v>
       </c>
       <c r="I47" t="n">
-        <v>2846425.190274044</v>
+        <v>1788476.06041638</v>
       </c>
       <c r="J47" t="n">
-        <v>2961363.840407303</v>
+        <v>1839243.030568968</v>
       </c>
       <c r="K47" t="n">
-        <v>3033439.585101559</v>
+        <v>1871300.82208882</v>
       </c>
       <c r="L47" t="n">
-        <v>3087724.813743253</v>
+        <v>1825677.648700725</v>
       </c>
       <c r="M47" t="n">
-        <v>3135778.510478001</v>
+        <v>1841866.826069894</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>643978.8225319881</v>
+        <v>5402848.254026821</v>
       </c>
       <c r="C48" t="n">
-        <v>764511.7198361568</v>
+        <v>5386623.151675107</v>
       </c>
       <c r="D48" t="n">
-        <v>651144.1964304933</v>
+        <v>5561340.259124682</v>
       </c>
       <c r="E48" t="n">
-        <v>634064.6903108655</v>
+        <v>5625554.392836914</v>
       </c>
       <c r="F48" t="n">
-        <v>672151.8363778037</v>
+        <v>5859985.801468221</v>
       </c>
       <c r="G48" t="n">
-        <v>792121.2532127115</v>
+        <v>5834617.263067651</v>
       </c>
       <c r="H48" t="n">
-        <v>678201.5193510337</v>
+        <v>6000373.816892374</v>
       </c>
       <c r="I48" t="n">
-        <v>660580.8473802959</v>
+        <v>6055806.621481198</v>
       </c>
       <c r="J48" t="n">
-        <v>698137.6513010141</v>
+        <v>6281632.340731911</v>
       </c>
       <c r="K48" t="n">
-        <v>817587.3332127366</v>
+        <v>6247830.23963548</v>
       </c>
       <c r="L48" t="n">
-        <v>703158.259498845</v>
+        <v>6405321.914657418</v>
       </c>
       <c r="M48" t="n">
-        <v>685038.4348379949</v>
+        <v>6452655.150405869</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>779120.4733396507</v>
+        <v>629293.5125759536</v>
       </c>
       <c r="C49" t="n">
-        <v>705639.6530179123</v>
+        <v>569843.4689840084</v>
       </c>
       <c r="D49" t="n">
-        <v>630847.4698102943</v>
+        <v>566829.4603311761</v>
       </c>
       <c r="E49" t="n">
-        <v>722996.2976517088</v>
+        <v>645361.2306032514</v>
       </c>
       <c r="F49" t="n">
-        <v>796266.3516751274</v>
+        <v>663660.0592957822</v>
       </c>
       <c r="G49" t="n">
-        <v>722442.2925224702</v>
+        <v>603522.5684817079</v>
       </c>
       <c r="H49" t="n">
-        <v>647313.7416918556</v>
+        <v>599834.8638773372</v>
       </c>
       <c r="I49" t="n">
-        <v>739132.9355652905</v>
+        <v>677706.4143965222</v>
       </c>
       <c r="J49" t="n">
-        <v>812079.954476477</v>
+        <v>695358.2299652378</v>
       </c>
       <c r="K49" t="n">
-        <v>737939.3269665769</v>
+        <v>634586.6684791539</v>
       </c>
       <c r="L49" t="n">
-        <v>662500.5450774402</v>
+        <v>630277.576761749</v>
       </c>
       <c r="M49" t="n">
-        <v>754015.7183263571</v>
+        <v>707540.170012778</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1691718.308532303</v>
+        <v>2901396.39771105</v>
       </c>
       <c r="C50" t="n">
-        <v>1761955.450110336</v>
+        <v>2859847.984597377</v>
       </c>
       <c r="D50" t="n">
-        <v>1700023.082415894</v>
+        <v>3020544.643065631</v>
       </c>
       <c r="E50" t="n">
-        <v>1748398.867726962</v>
+        <v>3058125.469326154</v>
       </c>
       <c r="F50" t="n">
-        <v>1768961.304196517</v>
+        <v>3226026.943657509</v>
       </c>
       <c r="G50" t="n">
-        <v>1837653.124856077</v>
+        <v>3177985.323696088</v>
       </c>
       <c r="H50" t="n">
-        <v>1774206.351884387</v>
+        <v>3332318.651373219</v>
       </c>
       <c r="I50" t="n">
-        <v>1821098.029062094</v>
+        <v>3363663.425139696</v>
       </c>
       <c r="J50" t="n">
-        <v>1840206.048418479</v>
+        <v>3525453.579474495</v>
       </c>
       <c r="K50" t="n">
-        <v>1907472.54898745</v>
+        <v>3471422.877135085</v>
       </c>
       <c r="L50" t="n">
-        <v>1842628.970833644</v>
+        <v>3619886.915076028</v>
       </c>
       <c r="M50" t="n">
-        <v>1888151.787269354</v>
+        <v>3645479.795675378</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2274556.639903477</v>
+        <v>2990285.636609259</v>
       </c>
       <c r="C51" t="n">
-        <v>2300178.154758727</v>
+        <v>3001303.860531973</v>
       </c>
       <c r="D51" t="n">
-        <v>2203174.488458928</v>
+        <v>3083049.065410476</v>
       </c>
       <c r="E51" t="n">
-        <v>2302081.550670351</v>
+        <v>3128788.078213383</v>
       </c>
       <c r="F51" t="n">
-        <v>2370842.66775909</v>
+        <v>3275710.587774146</v>
       </c>
       <c r="G51" t="n">
-        <v>2394538.431925084</v>
+        <v>3281009.194018478</v>
       </c>
       <c r="H51" t="n">
-        <v>2295647.530552466</v>
+        <v>3357149.396378392</v>
       </c>
       <c r="I51" t="n">
-        <v>2392705.102983127</v>
+        <v>3397395.725054503</v>
       </c>
       <c r="J51" t="n">
-        <v>2459653.720665505</v>
+        <v>3538935.618137096</v>
       </c>
       <c r="K51" t="n">
-        <v>2481573.235980476</v>
+        <v>3538959.469911251</v>
       </c>
       <c r="L51" t="n">
-        <v>2380941.611289722</v>
+        <v>3609930.618367088</v>
       </c>
       <c r="M51" t="n">
-        <v>2476293.275413359</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2187133.350328753</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2411268.480354233</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2039328.305348225</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2295014.610837693</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2187428.024747044</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2411504.219888866</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2039516.896975931</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2295165.484139859</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2187548.723388776</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2411600.778802252</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2039594.14410664</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2295227.281844425</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1348329.045000714</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1241308.977577378</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1224455.841913619</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1271829.997346497</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1408311.50224692</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1300086.883030273</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1282053.385062753</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1328270.881914508</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1463618.955944579</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1354283.667115622</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1335161.803708291</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1380312.791386258</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1389418.355866674</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1322063.857855533</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1328544.442204977</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1560135.587005679</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1426193.879005447</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1358103.697481286</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1363863.315449791</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1594747.916589738</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1460113.799126666</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1391345.059587111</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1396439.693893539</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1626672.614173787</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4430950.213827992</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4123223.243083229</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3586769.76880458</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4059750.994826408</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4472717.45893676</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4163002.405941821</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3624655.48028997</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4095833.381473321</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4507082.357340195</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4195731.56695422</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3655826.763498782</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4125520.94042162</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3463680.319112571</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3666923.155579436</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3662489.086813438</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3785270.724026149</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3576653.696608487</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3777636.686299269</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3770987.975278506</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3891599.270515602</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3680855.315247187</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3879753.922783848</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3871062.524248848</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3989671.992578833</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5380282.905028957</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5410128.881394236</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5416082.00635282</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5697778.793859147</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5634526.276824861</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5659193.109548309</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5660072.594220658</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5936799.095607444</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5868677.541212128</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5888574.522813748</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5884781.322099349</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6156930.324489656</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5099870.791981102</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5351021.914240511</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4997042.441707653</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5308036.938528812</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5276565.220093657</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5524182.39991679</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5166739.664873878</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5474340.165491131</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5439542.331810975</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5683899.919708138</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5323262.785571623</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5627732.776051114</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2806972.419795385</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2978591.984609775</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2637387.130164959</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2717021.363285363</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2877639.09301058</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3047845.085235614</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2705254.93443654</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2783531.581817399</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2942818.882111722</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3111721.057996446</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2767853.171595781</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2844877.642410739</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3837040.320408296</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3800518.631847532</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3679798.91497934</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3791606.424050742</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3926121.986234382</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3887818.295139491</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3765352.223173738</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3875448.311487664</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4008286.688422318</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3968339.362734867</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3844262.535680792</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3952780.090684275</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3072341.635365883</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2956898.896025262</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2767184.099022817</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2762061.212155528</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3104497.191492388</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2988408.569280083</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2798060.862737291</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2792317.779076086</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3134146.01901472</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3017461.864578159</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2826530.587789366</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2820215.655589752</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5525803.881130105</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5345672.572167232</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5036953.01747247</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5177134.542942761</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5580303.316067549</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5398584.790339233</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5088324.244258492</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5227009.657475331</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5628725.890439742</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5445597.127670296</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5133967.415650859</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5271323.537895323</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3214643.103255234</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3185685.074816955</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3073298.434567967</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3026409.517438336</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3290152.806144679</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3259608.288311601</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3145668.491451595</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3097259.05015946</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3359513.761530872</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3327511.94197467</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3212145.461890095</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3162339.312564907</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2203628.242677763</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2083894.390828783</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2035912.810918225</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2170101.064697932</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2204068.67670509</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2084292.839725752</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2036273.276989521</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2170427.168721669</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2204363.69430249</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2084559.734263814</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2036514.729347194</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2170645.604218511</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1695395.80220015</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1741928.303322259</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1776308.436571816</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1732947.198485584</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1753633.840283372</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1799000.759709151</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1832238.639326569</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1787758.00878227</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1807347.661750325</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1851639.547586333</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1883823.909439657</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1838310.846337137</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4814957.110768273</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4979809.881135329</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4892343.559667848</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4999964.828889614</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4965157.986310707</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5127006.733951271</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5036596.47031614</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5141332.676315835</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5103698.471879481</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5262776.404997925</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5169650.743227333</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5271725.859148567</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>614766.89409524</v>
-      </c>
-      <c r="C67" t="n">
-        <v>622126.2924059641</v>
-      </c>
-      <c r="D67" t="n">
-        <v>562820.2740273888</v>
-      </c>
-      <c r="E67" t="n">
-        <v>559947.3908759512</v>
-      </c>
-      <c r="F67" t="n">
-        <v>649103.041551986</v>
-      </c>
-      <c r="G67" t="n">
-        <v>655775.6579514722</v>
-      </c>
-      <c r="H67" t="n">
-        <v>595796.5944792271</v>
-      </c>
-      <c r="I67" t="n">
-        <v>592264.1282917474</v>
-      </c>
-      <c r="J67" t="n">
-        <v>680773.3887250985</v>
-      </c>
-      <c r="K67" t="n">
-        <v>686812.5437967372</v>
-      </c>
-      <c r="L67" t="n">
-        <v>626212.6893109826</v>
-      </c>
-      <c r="M67" t="n">
-        <v>622071.8489962872</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2867165.098205307</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3035688.018926715</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3005252.682613831</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3176490.764782017</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3250780.490769861</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3411630.812813541</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3373676.335613232</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3537545.665412152</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3604614.019664512</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3758387.402882084</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3713497.530997355</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3870570.179263406</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3038113.955326261</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3207316.278537023</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3243103.812733955</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3348083.152342418</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3434478.597559385</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3595753.092885754</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3623771.366457498</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3721136.841140749</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3800070.709008717</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3954032.868605207</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3974885.063032353</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4065227.789827156</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7232148.907215259</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7301844.520358492</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7380749.936840094</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7698669.18425826</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7455755.824494118</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7520977.314335838</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7595498.129698697</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7909120.506942546</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7661996.252550839</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7723091.103037607</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7793567.84846474</v>
-      </c>
-      <c r="M70" t="n">
-        <v>8103227.073070739</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20952528.9660768</v>
-      </c>
-      <c r="C71" t="n">
-        <v>24874849.40290496</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20429003.3548709</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24055193.34486816</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24684520.57375453</v>
-      </c>
-      <c r="G71" t="n">
-        <v>28532179.39917804</v>
-      </c>
-      <c r="H71" t="n">
-        <v>24013165.40767955</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27567651.240077</v>
-      </c>
-      <c r="J71" t="n">
-        <v>28126708.8129685</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31905503.78559848</v>
-      </c>
-      <c r="L71" t="n">
-        <v>27319003.62023973</v>
-      </c>
-      <c r="M71" t="n">
-        <v>30807353.39609166</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4387646.65983381</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3123678.407087771</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4282901.376713212</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3004529.142320399</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4435187.040122214</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3168622.729942463</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4325391.40612847</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3044698.900924761</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4473163.231914477</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3204525.139943158</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4359333.278207403</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3076787.294996366</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9303030.19510553</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9088255.620538613</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9020272.149916822</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9375773.063087987</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9625223.161232995</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9404000.182826452</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9329697.367396269</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9679005.411789281</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9922386.585881831</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9695216.147505775</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9615084.90519412</v>
-      </c>
-      <c r="M73" t="n">
-        <v>9958681.173452985</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17416461.85059363</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18409466.14447419</v>
-      </c>
-      <c r="D74" t="n">
-        <v>14809295.35761031</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16726668.86616823</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17441627.74721292</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18432897.20088605</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14831111.16703215</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16746980.7775206</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17460539.43344965</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18450505.18814595</v>
-      </c>
-      <c r="L74" t="n">
-        <v>14847505.32731293</v>
-      </c>
-      <c r="M74" t="n">
-        <v>16762244.78738979</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>22536335.45947355</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25242982.22712554</v>
-      </c>
-      <c r="D75" t="n">
-        <v>22500679.72560047</v>
-      </c>
-      <c r="E75" t="n">
-        <v>23845216.0720315</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23637279.30518135</v>
-      </c>
-      <c r="G75" t="n">
-        <v>26321904.88193694</v>
-      </c>
-      <c r="H75" t="n">
-        <v>23558021.65961791</v>
-      </c>
-      <c r="I75" t="n">
-        <v>24881408.94502958</v>
-      </c>
-      <c r="J75" t="n">
-        <v>24652746.14283191</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27317060.24850925</v>
-      </c>
-      <c r="L75" t="n">
-        <v>24533271.82722454</v>
-      </c>
-      <c r="M75" t="n">
-        <v>25837152.05948691</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14997426.07680572</v>
-      </c>
-      <c r="C76" t="n">
-        <v>16129276.04856601</v>
-      </c>
-      <c r="D76" t="n">
-        <v>16608391.06294532</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16954670.18171372</v>
-      </c>
-      <c r="F76" t="n">
-        <v>17513685.4221767</v>
-      </c>
-      <c r="G76" t="n">
-        <v>18142283.52486279</v>
-      </c>
-      <c r="H76" t="n">
-        <v>18218797.04398275</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18242994.96654366</v>
-      </c>
-      <c r="J76" t="n">
-        <v>18544345.25004065</v>
-      </c>
-      <c r="K76" t="n">
-        <v>18966811.38715395</v>
-      </c>
-      <c r="L76" t="n">
-        <v>18878419.33381568</v>
-      </c>
-      <c r="M76" t="n">
-        <v>18770692.79841001</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17351378.70499073</v>
-      </c>
-      <c r="C77" t="n">
-        <v>17812244.34531798</v>
-      </c>
-      <c r="D77" t="n">
-        <v>18485406.30725747</v>
-      </c>
-      <c r="E77" t="n">
-        <v>19954975.18932505</v>
-      </c>
-      <c r="F77" t="n">
-        <v>20676118.11796452</v>
-      </c>
-      <c r="G77" t="n">
-        <v>21070484.66064886</v>
-      </c>
-      <c r="H77" t="n">
-        <v>21678477.59309156</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23084180.91072155</v>
-      </c>
-      <c r="J77" t="n">
-        <v>23742735.66899197</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24075765.88583872</v>
-      </c>
-      <c r="L77" t="n">
-        <v>24623649.29846207</v>
-      </c>
-      <c r="M77" t="n">
-        <v>25970445.36458046</v>
+        <v>3645111.475576359</v>
       </c>
     </row>
   </sheetData>
